--- a/Data/Tables/Template.xlsx
+++ b/Data/Tables/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>序号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>名称</t>
   </si>
   <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>用于复制的模板无任何作用</t>
+    <t>介绍</t>
   </si>
   <si>
     <t>Integer</t>
@@ -58,7 +52,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Icon</t>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -776,7 +770,7 @@
     <tableColumn id="1" name="Key"/>
     <tableColumn id="2" name="ID"/>
     <tableColumn id="3" name="Name"/>
-    <tableColumn id="6" name="Icon"/>
+    <tableColumn id="6" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1035,43 +1029,41 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="11.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="16.1851851851852" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="43.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="11.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1080,39 +1072,55 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
@@ -1147,7 +1155,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1164,7 +1172,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
